--- a/sources/case/In.xlsx
+++ b/sources/case/In.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>API</t>
   </si>
@@ -53,39 +53,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>CaseID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quitting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>68d5dde1-afeb-11e7-850c-5254001aba5d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>/attendance/v1/attendances/in</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>in</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>location_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>work</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>quitting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>68d5dde1-afeb-11e7-850c-5254001aba5d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
+    <t>AttendanceIn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenant_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -432,13 +444,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.875" bestFit="1" customWidth="1"/>
@@ -464,7 +476,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -473,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -503,21 +515,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -525,10 +537,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -542,37 +554,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>